--- a/Manual Testing  2/Session1_CE(2).xlsx
+++ b/Manual Testing  2/Session1_CE(2).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zexan\Downloads\727722EUCS209-Software-Testing-main\Manual Testing  2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D69EC2AC-2804-4C20-919A-BB12EAEE58F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="132" windowWidth="22932" windowHeight="9240" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,11 +147,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,7 +208,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,10 +249,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -256,13 +262,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -300,7 +314,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -334,6 +348,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -368,9 +383,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -543,7 +559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -553,12 +569,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="30.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="60" customHeight="1">
+    <row r="1" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -569,12 +585,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60" customHeight="1">
+    <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="60" customHeight="1">
+    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -585,7 +601,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="60" customHeight="1">
+    <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -596,7 +612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="60" customHeight="1">
+    <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -607,7 +623,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="60" customHeight="1">
+    <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -618,7 +634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="60" customHeight="1">
+    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -629,12 +645,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="60" customHeight="1">
+    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="60" customHeight="1">
+    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -645,7 +661,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="60" customHeight="1">
+    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -656,7 +672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="60" customHeight="1">
+    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -667,7 +683,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="60" customHeight="1">
+    <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -685,66 +701,66 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C2" sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="30.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="69" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="69" customHeight="1">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="69" customHeight="1">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -754,12 +770,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
